--- a/5504 HW/Ch. 16/Q3.xlsx
+++ b/5504 HW/Ch. 16/Q3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andreaalejandra/Desktop/Test/5504 HW/Ch. 16/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03381824-770D-8240-B13A-DE677F18A59A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4879BE6-E748-7E4A-87EE-692AF84DD2D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16940" xr2:uid="{2EC12774-1A1F-DF42-9503-BFC417A168DF}"/>
   </bookViews>
@@ -38,7 +38,7 @@
     <t>x</t>
   </si>
   <si>
-    <t>y</t>
+    <t>facilities</t>
   </si>
 </sst>
 </file>
@@ -400,7 +400,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
